--- a/capiq_data/in_process_data/IQ26273.xlsx
+++ b/capiq_data/in_process_data/IQ26273.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50B9DCD-A28A-4A1D-89E7-D794C238615E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB42BD-9D51-4C2F-B40A-3A8B603663E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"bb795a95-aa2b-4540-a4fe-bab14fa447da"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e87ac376-674b-4d58-a427-c0925513c4fa"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>25.399000000000001</v>
+        <v>3.222</v>
       </c>
       <c r="D2">
-        <v>1132.7809999999999</v>
+        <v>59.985999999999997</v>
       </c>
       <c r="E2">
-        <v>130.06299999999999</v>
+        <v>15.538</v>
       </c>
       <c r="F2">
-        <v>140.65299999999999</v>
+        <v>11.066000000000001</v>
       </c>
       <c r="G2">
-        <v>656.82100000000003</v>
+        <v>46.716000000000001</v>
       </c>
       <c r="H2">
-        <v>1943.8820000000001</v>
+        <v>66.016999999999996</v>
       </c>
       <c r="I2">
-        <v>645.08500000000004</v>
+        <v>51.972999999999999</v>
       </c>
       <c r="J2">
-        <v>327.82400000000001</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>765.24599999999998</v>
+        <v>51.972999999999999</v>
       </c>
       <c r="O2">
-        <v>1146.827</v>
+        <v>55.972999999999999</v>
       </c>
       <c r="P2">
-        <v>330.64100000000002</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>36.5</v>
+        <v>-14.409000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>797.05499999999995</v>
+        <v>10.044</v>
       </c>
       <c r="U2">
-        <v>434.166</v>
+        <v>19.023</v>
       </c>
       <c r="V2">
-        <v>194.625</v>
+        <v>-2.04</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>16.492999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-114.48099999999999</v>
+        <v>-12.226000000000001</v>
       </c>
       <c r="AA2">
-        <v>25.399000000000001</v>
+        <v>3.222</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>23.745000000000001</v>
+        <v>2.1819999999999999</v>
       </c>
       <c r="D3">
-        <v>1182.9100000000001</v>
+        <v>71.27</v>
       </c>
       <c r="E3">
-        <v>132.023</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>204.34299999999999</v>
+        <v>12.696999999999999</v>
       </c>
       <c r="G3">
-        <v>743.82899999999995</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2003.6849999999999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>686.55899999999997</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>302.32600000000002</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-152.577</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>817.04700000000003</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1172.489</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>305.363</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>57.878999999999998</v>
+        <v>35.021000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>831.19600000000003</v>
+        <v>10.044</v>
       </c>
       <c r="U3">
-        <v>492.04500000000002</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>93.991</v>
+        <v>31.128</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-24.134</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.9039999999999999</v>
+        <v>-1.8640000000000001</v>
       </c>
       <c r="AA3">
-        <v>23.745000000000001</v>
+        <v>2.1819999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>28.373999999999999</v>
+        <v>3.23</v>
       </c>
       <c r="D4">
-        <v>1280.9490000000001</v>
+        <v>81.491</v>
       </c>
       <c r="E4">
-        <v>152.13499999999999</v>
+        <v>8.3510000000000009</v>
       </c>
       <c r="F4">
-        <v>221.82900000000001</v>
+        <v>15.025</v>
       </c>
       <c r="G4">
-        <v>774.53599999999994</v>
+        <v>62.350999999999999</v>
       </c>
       <c r="H4">
-        <v>2010.444</v>
+        <v>92.430999999999997</v>
       </c>
       <c r="I4">
-        <v>635.49099999999999</v>
+        <v>73.197000000000003</v>
       </c>
       <c r="J4">
-        <v>338.28699999999998</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>749.77300000000002</v>
+        <v>73.197000000000003</v>
       </c>
       <c r="O4">
-        <v>1140.1400000000001</v>
+        <v>77.197000000000003</v>
       </c>
       <c r="P4">
-        <v>341.459</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>-17.594999999999999</v>
+        <v>-7.5650000000000004</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>870.30399999999997</v>
+        <v>15.234</v>
       </c>
       <c r="U4">
-        <v>474.45</v>
+        <v>46.478999999999999</v>
       </c>
       <c r="V4">
-        <v>-40.837000000000003</v>
+        <v>-3.1339999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>32.375</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>12.305</v>
+        <v>-3.5990000000000002</v>
       </c>
       <c r="AA4">
-        <v>28.373999999999999</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>28.986999999999998</v>
+        <v>3.5630000000000002</v>
       </c>
       <c r="D5">
-        <v>1267.9780000000001</v>
+        <v>86.322999999999993</v>
       </c>
       <c r="E5">
-        <v>139.46700000000001</v>
+        <v>8.1530000000000005</v>
       </c>
       <c r="F5">
-        <v>214.65799999999999</v>
+        <v>15.85</v>
       </c>
       <c r="G5">
-        <v>766.37599999999998</v>
+        <v>73.771000000000001</v>
       </c>
       <c r="H5">
-        <v>2037.498</v>
+        <v>103.971</v>
       </c>
       <c r="I5">
-        <v>672.41300000000001</v>
+        <v>80.528000000000006</v>
       </c>
       <c r="J5">
-        <v>348.09300000000002</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>730.38</v>
+        <v>80.528000000000006</v>
       </c>
       <c r="O5">
-        <v>1133.3989999999999</v>
+        <v>84.528000000000006</v>
       </c>
       <c r="P5">
-        <v>351.29599999999999</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>-22.792999999999999</v>
+        <v>14.919</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>904.09900000000005</v>
+        <v>19.443000000000001</v>
       </c>
       <c r="U5">
-        <v>451.65699999999998</v>
+        <v>61.398000000000003</v>
       </c>
       <c r="V5">
-        <v>36.518999999999998</v>
+        <v>11.571999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.72799999999999998</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-38.229999999999997</v>
+        <v>4.1520000000000001</v>
       </c>
       <c r="AA5">
-        <v>28.986999999999998</v>
+        <v>3.5630000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>30.111999999999998</v>
+        <v>3.92</v>
       </c>
       <c r="D6">
-        <v>1462.539</v>
+        <v>91.400999999999996</v>
       </c>
       <c r="E6">
-        <v>152.137</v>
+        <v>7.032</v>
       </c>
       <c r="F6">
-        <v>228.8</v>
+        <v>16.762</v>
       </c>
       <c r="G6">
-        <v>940.01</v>
+        <v>102.047</v>
       </c>
       <c r="H6">
-        <v>2190.3359999999998</v>
+        <v>131.36600000000001</v>
       </c>
       <c r="I6">
-        <v>824.48900000000003</v>
+        <v>66.277000000000001</v>
       </c>
       <c r="J6">
-        <v>348.34399999999999</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>837.61300000000006</v>
+        <v>66.277000000000001</v>
       </c>
       <c r="O6">
-        <v>1253.9169999999999</v>
+        <v>67.277000000000001</v>
       </c>
       <c r="P6">
-        <v>351.57799999999997</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>122.041</v>
+        <v>27.469000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>5300</v>
+        <v>440</v>
       </c>
       <c r="T6">
-        <v>936.41899999999998</v>
+        <v>64.088999999999999</v>
       </c>
       <c r="U6">
-        <v>573.69799999999998</v>
+        <v>88.867000000000004</v>
       </c>
       <c r="V6">
-        <v>172.023</v>
+        <v>-9.3780000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-2.0569999999999999</v>
+        <v>37.075000000000003</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-29.972000000000001</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="AA6">
-        <v>30.111999999999998</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>23.978000000000002</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>1668.759</v>
+        <v>96.668000000000006</v>
       </c>
       <c r="E7">
-        <v>278.233</v>
+        <v>9.6720000000000006</v>
       </c>
       <c r="F7">
-        <v>226.083</v>
+        <v>17.724</v>
       </c>
       <c r="G7">
-        <v>920.37699999999995</v>
+        <v>110.191</v>
       </c>
       <c r="H7">
-        <v>2283.1469999999999</v>
+        <v>143.12200000000001</v>
       </c>
       <c r="I7">
-        <v>867.11</v>
+        <v>69.822999999999993</v>
       </c>
       <c r="J7">
-        <v>347.16199999999998</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.79500000000000004</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>888.322</v>
+        <v>69.822999999999993</v>
       </c>
       <c r="O7">
-        <v>1304.028</v>
+        <v>75.037000000000006</v>
       </c>
       <c r="P7">
-        <v>350.39699999999999</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-140.69999999999999</v>
+        <v>2.871</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>979.11900000000003</v>
+        <v>68.084999999999994</v>
       </c>
       <c r="U7">
-        <v>432.99799999999999</v>
+        <v>91.738</v>
       </c>
       <c r="V7">
-        <v>-32.095999999999997</v>
+        <v>2.3039999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>12.247</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-105.871</v>
+        <v>5.0780000000000003</v>
       </c>
       <c r="AA7">
-        <v>23.978000000000002</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-34.999000000000002</v>
+        <v>5.2329999999999997</v>
       </c>
       <c r="D8">
-        <v>2065.6439999999998</v>
+        <v>108.586</v>
       </c>
       <c r="E8">
-        <v>400.19400000000002</v>
+        <v>7.524</v>
       </c>
       <c r="F8">
-        <v>175.239</v>
+        <v>20.477</v>
       </c>
       <c r="G8">
-        <v>1073.4380000000001</v>
+        <v>65.631</v>
       </c>
       <c r="H8">
-        <v>2449.5500000000002</v>
+        <v>157.73599999999999</v>
       </c>
       <c r="I8">
-        <v>1001.801</v>
+        <v>68.697999999999993</v>
       </c>
       <c r="J8">
-        <v>405.46199999999999</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1034.2360000000001</v>
+        <v>68.697999999999993</v>
       </c>
       <c r="O8">
-        <v>1501.5630000000001</v>
+        <v>73.436000000000007</v>
       </c>
       <c r="P8">
-        <v>408.76400000000001</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>-11.103999999999999</v>
+        <v>-47.402000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>947.98699999999997</v>
+        <v>84.3</v>
       </c>
       <c r="U8">
-        <v>421.89400000000001</v>
+        <v>44.335999999999999</v>
       </c>
       <c r="V8">
-        <v>22.196000000000002</v>
+        <v>6.6120000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>56.472999999999999</v>
+        <v>10.397</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-47.311</v>
+        <v>-63.313000000000002</v>
       </c>
       <c r="AA8">
-        <v>-34.999000000000002</v>
+        <v>5.234</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>3.819</v>
+        <v>9.2739999999999991</v>
       </c>
       <c r="D9">
-        <v>2235.7080000000001</v>
+        <v>123.166</v>
       </c>
       <c r="E9">
-        <v>316.12299999999999</v>
+        <v>8.25</v>
       </c>
       <c r="F9">
-        <v>198.709</v>
+        <v>27.521999999999998</v>
       </c>
       <c r="G9">
-        <v>1376.5050000000001</v>
+        <v>79.941000000000003</v>
       </c>
       <c r="H9">
-        <v>2690.9360000000001</v>
+        <v>170.76599999999999</v>
       </c>
       <c r="I9">
-        <v>1144.81</v>
+        <v>70.429000000000002</v>
       </c>
       <c r="J9">
-        <v>391.97300000000001</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1280.114</v>
+        <v>71.325999999999993</v>
       </c>
       <c r="O9">
-        <v>1733.8720000000001</v>
+        <v>75.872</v>
       </c>
       <c r="P9">
-        <v>395.31</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>374.72699999999998</v>
+        <v>11.73</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>957.06399999999996</v>
+        <v>94.894000000000005</v>
       </c>
       <c r="U9">
-        <v>796.62099999999998</v>
+        <v>56.066000000000003</v>
       </c>
       <c r="V9">
-        <v>317.18200000000002</v>
+        <v>13.215</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-14.529</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>85.233000000000004</v>
+        <v>-0.48</v>
       </c>
       <c r="AA9">
-        <v>3.819</v>
+        <v>9.2729999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6.8140000000000001</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>142.642</v>
       </c>
       <c r="E10">
-        <v>242.37899999999999</v>
+        <v>16.773</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>25.870999999999999</v>
       </c>
       <c r="G10">
-        <v>1405.825</v>
+        <v>93.088999999999999</v>
       </c>
       <c r="H10">
-        <v>2773.9050000000002</v>
+        <v>210.327</v>
       </c>
       <c r="I10">
-        <v>1034.2270000000001</v>
+        <v>101.929</v>
       </c>
       <c r="J10">
-        <v>535.48099999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1229.3130000000001</v>
+        <v>101.929</v>
       </c>
       <c r="O10">
-        <v>1820.1379999999999</v>
+        <v>107.26300000000001</v>
       </c>
       <c r="P10">
-        <v>538.85400000000004</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>6800</v>
+        <v>593</v>
       </c>
       <c r="T10">
-        <v>953.76700000000005</v>
+        <v>103.06399999999999</v>
       </c>
       <c r="U10">
-        <v>745.93299999999999</v>
+        <v>59.655999999999999</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>17.527999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-5.95</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>6.8140000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>23.001999999999999</v>
+        <v>7.1609999999999996</v>
       </c>
       <c r="D11">
-        <v>2426.096</v>
+        <v>178.40799999999999</v>
       </c>
       <c r="E11">
-        <v>320.37099999999998</v>
+        <v>19.925000000000001</v>
       </c>
       <c r="F11">
-        <v>271.55</v>
+        <v>31.501000000000001</v>
       </c>
       <c r="G11">
-        <v>1375.271</v>
+        <v>95.802000000000007</v>
       </c>
       <c r="H11">
-        <v>2887.1570000000002</v>
+        <v>224.74700000000001</v>
       </c>
       <c r="I11">
-        <v>1265.5</v>
+        <v>107.80800000000001</v>
       </c>
       <c r="J11">
-        <v>532.73400000000004</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.77600000000000002</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1307.0940000000001</v>
+        <v>108.178</v>
       </c>
       <c r="O11">
-        <v>1900.627</v>
+        <v>114.497</v>
       </c>
       <c r="P11">
-        <v>536.15300000000002</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>-113.161</v>
+        <v>0.314</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>986.53</v>
+        <v>110.25</v>
       </c>
       <c r="U11">
-        <v>730.79100000000005</v>
+        <v>59.97</v>
       </c>
       <c r="V11">
-        <v>42.993000000000002</v>
+        <v>9.859</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.123</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-145.62299999999999</v>
+        <v>-6.8369999999999997</v>
       </c>
       <c r="AA11">
-        <v>23.001999999999999</v>
+        <v>7.1609999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>39.484000000000002</v>
+        <v>7.7080000000000002</v>
       </c>
       <c r="D12">
-        <v>2522.989</v>
+        <v>187.489</v>
       </c>
       <c r="E12">
-        <v>357.90800000000002</v>
+        <v>16.739000000000001</v>
       </c>
       <c r="F12">
-        <v>388.70600000000002</v>
+        <v>35.085000000000001</v>
       </c>
       <c r="G12">
-        <v>1342.36</v>
+        <v>77.828000000000003</v>
       </c>
       <c r="H12">
-        <v>3045.2350000000001</v>
+        <v>220.41399999999999</v>
       </c>
       <c r="I12">
-        <v>1295.732</v>
+        <v>96.911000000000001</v>
       </c>
       <c r="J12">
-        <v>548.47299999999996</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1320.5719999999999</v>
+        <v>96.941000000000003</v>
       </c>
       <c r="O12">
-        <v>1922.961</v>
+        <v>102.58199999999999</v>
       </c>
       <c r="P12">
-        <v>551.50199999999995</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-42.079000000000001</v>
+        <v>-16.547999999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1122.2739999999999</v>
+        <v>117.83199999999999</v>
       </c>
       <c r="U12">
-        <v>688.71199999999999</v>
+        <v>43.421999999999997</v>
       </c>
       <c r="V12">
-        <v>37.945999999999998</v>
+        <v>-0.46400000000000002</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>39.206000000000003</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-32.996000000000002</v>
+        <v>-13.276999999999999</v>
       </c>
       <c r="AA12">
-        <v>39.484000000000002</v>
+        <v>7.7080000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>49.372999999999998</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="D13">
-        <v>2730.8209999999999</v>
+        <v>199.99799999999999</v>
       </c>
       <c r="E13">
-        <v>355.947</v>
+        <v>22.076000000000001</v>
       </c>
       <c r="F13">
-        <v>437.20499999999998</v>
+        <v>39.186</v>
       </c>
       <c r="G13">
-        <v>1368.4349999999999</v>
+        <v>102.973</v>
       </c>
       <c r="H13">
-        <v>3139.0369999999998</v>
+        <v>328.452</v>
       </c>
       <c r="I13">
-        <v>1342.0530000000001</v>
+        <v>105.21</v>
       </c>
       <c r="J13">
-        <v>517.93100000000004</v>
+        <v>7.6879999999999997</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1386.972</v>
+        <v>106.71</v>
       </c>
       <c r="O13">
-        <v>1953.9459999999999</v>
+        <v>119.902</v>
       </c>
       <c r="P13">
-        <v>520.97699999999998</v>
+        <v>8.5570000000000004</v>
       </c>
       <c r="Q13">
-        <v>52.569000000000003</v>
+        <v>19.484000000000002</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1185.0909999999999</v>
+        <v>208.55</v>
       </c>
       <c r="U13">
-        <v>741.28099999999995</v>
+        <v>62.905999999999999</v>
       </c>
       <c r="V13">
-        <v>130.73099999999999</v>
+        <v>12.929</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="X13">
-        <v>-29.532</v>
+        <v>90.212000000000003</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-36.363</v>
+        <v>-69.042000000000002</v>
       </c>
       <c r="AA13">
-        <v>49.372999999999998</v>
+        <v>8.7040000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>53.140999999999998</v>
+        <v>9.6969999999999992</v>
       </c>
       <c r="D14">
-        <v>2863.893</v>
+        <v>208.995</v>
       </c>
       <c r="E14">
-        <v>419</v>
+        <v>20.308</v>
       </c>
       <c r="F14">
-        <v>451.33800000000002</v>
+        <v>42.926000000000002</v>
       </c>
       <c r="G14">
-        <v>1800</v>
+        <v>110.301</v>
       </c>
       <c r="H14">
-        <v>3529</v>
+        <v>362.69200000000001</v>
       </c>
       <c r="I14">
-        <v>1488</v>
+        <v>124.53400000000001</v>
       </c>
       <c r="J14">
-        <v>666</v>
+        <v>7.6159999999999997</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1559</v>
+        <v>128.786</v>
       </c>
       <c r="O14">
-        <v>2286</v>
+        <v>142.577</v>
       </c>
       <c r="P14">
-        <v>669</v>
+        <v>8.1950000000000003</v>
       </c>
       <c r="Q14">
-        <v>296.67099999999999</v>
+        <v>1.44</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>8800</v>
+        <v>950</v>
       </c>
       <c r="T14">
-        <v>1243</v>
+        <v>220.11500000000001</v>
       </c>
       <c r="U14">
-        <v>974</v>
+        <v>64.346000000000004</v>
       </c>
       <c r="V14">
-        <v>170.33</v>
+        <v>33.674999999999997</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>144.203</v>
+        <v>-0.11</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>3.9820000000000002</v>
+        <v>-26.562000000000001</v>
       </c>
       <c r="AA14">
-        <v>53.140999999999998</v>
+        <v>9.6969999999999992</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>10.138</v>
       </c>
       <c r="D15">
-        <v>3357</v>
+        <v>227.035</v>
       </c>
       <c r="E15">
-        <v>570.10500000000002</v>
+        <v>21.634</v>
       </c>
       <c r="F15">
-        <v>614</v>
+        <v>46.587000000000003</v>
       </c>
       <c r="G15">
-        <v>2281.8490000000002</v>
+        <v>111.11</v>
       </c>
       <c r="H15">
-        <v>4446.4470000000001</v>
+        <v>377.38299999999998</v>
       </c>
       <c r="I15">
-        <v>1913.0540000000001</v>
+        <v>127.574</v>
       </c>
       <c r="J15">
-        <v>810.97</v>
+        <v>7.5439999999999996</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-519</v>
+        <v>-0.36299999999999999</v>
       </c>
       <c r="N15">
-        <v>2021.443</v>
+        <v>131.59800000000001</v>
       </c>
       <c r="O15">
-        <v>2903.5880000000002</v>
+        <v>144.755</v>
       </c>
       <c r="P15">
-        <v>817.08</v>
+        <v>7.8319999999999999</v>
       </c>
       <c r="Q15">
-        <v>233</v>
+        <v>-19.983000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1542.8589999999999</v>
+        <v>232.62799999999999</v>
       </c>
       <c r="U15">
-        <v>1218.0039999999999</v>
+        <v>44.363</v>
       </c>
       <c r="V15">
-        <v>252</v>
+        <v>12.365</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>131</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-55</v>
+        <v>-23.928000000000001</v>
       </c>
       <c r="AA15">
-        <v>33</v>
+        <v>10.138</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>10.813000000000001</v>
       </c>
       <c r="D16">
-        <v>3748</v>
+        <v>234.94399999999999</v>
       </c>
       <c r="E16">
-        <v>610.96900000000005</v>
+        <v>21.297000000000001</v>
       </c>
       <c r="F16">
-        <v>788</v>
+        <v>47.646000000000001</v>
       </c>
       <c r="G16">
-        <v>2324.886</v>
+        <v>145.059</v>
       </c>
       <c r="H16">
-        <v>4682.567</v>
+        <v>389.815</v>
       </c>
       <c r="I16">
-        <v>2064.4580000000001</v>
+        <v>130.77799999999999</v>
       </c>
       <c r="J16">
-        <v>884.89</v>
+        <v>7.4720000000000004</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2117.7069999999999</v>
+        <v>134.71600000000001</v>
       </c>
       <c r="O16">
-        <v>3076.9450000000002</v>
+        <v>147.614</v>
       </c>
       <c r="P16">
-        <v>891.02499999999998</v>
+        <v>7.76</v>
       </c>
       <c r="Q16">
-        <v>-12</v>
+        <v>36.115000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1605.6220000000001</v>
+        <v>242.20099999999999</v>
       </c>
       <c r="U16">
-        <v>1199.7840000000001</v>
+        <v>80.477999999999994</v>
       </c>
       <c r="V16">
-        <v>160</v>
+        <v>17.748999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>68</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-199</v>
+        <v>20.663</v>
       </c>
       <c r="AA16">
-        <v>49</v>
+        <v>10.813000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>82</v>
+        <v>11.351000000000001</v>
       </c>
       <c r="D17">
-        <v>4165</v>
+        <v>255.42599999999999</v>
       </c>
       <c r="E17">
-        <v>685.18799999999999</v>
+        <v>22.739000000000001</v>
       </c>
       <c r="F17">
-        <v>775</v>
+        <v>52.451999999999998</v>
       </c>
       <c r="G17">
-        <v>2767.7109999999998</v>
+        <v>170.69800000000001</v>
       </c>
       <c r="H17">
-        <v>5446.3450000000003</v>
+        <v>421.15300000000002</v>
       </c>
       <c r="I17">
-        <v>2515.578</v>
+        <v>148.30099999999999</v>
       </c>
       <c r="J17">
-        <v>950.97</v>
+        <v>7.4</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2634.2930000000001</v>
+        <v>152.25899999999999</v>
       </c>
       <c r="O17">
-        <v>3664.7950000000001</v>
+        <v>165.23</v>
       </c>
       <c r="P17">
-        <v>956.101</v>
+        <v>7.6879999999999997</v>
       </c>
       <c r="Q17">
-        <v>324</v>
+        <v>8.2089999999999996</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1781.55</v>
+        <v>255.923</v>
       </c>
       <c r="U17">
-        <v>1523.596</v>
+        <v>88.686999999999998</v>
       </c>
       <c r="V17">
-        <v>441</v>
+        <v>27.361000000000001</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>74</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-164</v>
+        <v>-15.202</v>
       </c>
       <c r="AA17">
-        <v>82</v>
+        <v>11.351000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>107</v>
+        <v>12.01</v>
       </c>
       <c r="D18">
-        <v>4419</v>
+        <v>289.96600000000001</v>
       </c>
       <c r="E18">
-        <v>890</v>
+        <v>31.475000000000001</v>
       </c>
       <c r="F18">
-        <v>834</v>
+        <v>60.21</v>
       </c>
       <c r="G18">
-        <v>2951</v>
+        <v>224.292</v>
       </c>
       <c r="H18">
-        <v>5824</v>
+        <v>527.93399999999997</v>
       </c>
       <c r="I18">
-        <v>2727</v>
+        <v>197.71700000000001</v>
       </c>
       <c r="J18">
-        <v>874</v>
+        <v>46.972999999999999</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2900</v>
+        <v>202.15899999999999</v>
       </c>
       <c r="O18">
-        <v>3933</v>
+        <v>256.62200000000001</v>
       </c>
       <c r="P18">
-        <v>879</v>
+        <v>47.459000000000003</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>-4.5819999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>13400</v>
+        <v>1200</v>
       </c>
       <c r="T18">
-        <v>1891</v>
+        <v>271.31200000000001</v>
       </c>
       <c r="U18">
-        <v>1610</v>
+        <v>84.105000000000004</v>
       </c>
       <c r="V18">
-        <v>370</v>
+        <v>41.93</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-75</v>
+        <v>41.012</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-191</v>
+        <v>7.7320000000000002</v>
       </c>
       <c r="AA18">
-        <v>107</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>14.411</v>
       </c>
       <c r="D19">
-        <v>4770</v>
+        <v>334.49599999999998</v>
       </c>
       <c r="E19">
-        <v>1245</v>
+        <v>36.987000000000002</v>
       </c>
       <c r="F19">
-        <v>909</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="G19">
-        <v>3590</v>
+        <v>249.24</v>
       </c>
       <c r="H19">
-        <v>6696</v>
+        <v>560.78399999999999</v>
       </c>
       <c r="I19">
-        <v>3221</v>
+        <v>217.577</v>
       </c>
       <c r="J19">
-        <v>1125</v>
+        <v>42.851999999999997</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-253</v>
+        <v>-4.1210000000000004</v>
       </c>
       <c r="N19">
-        <v>3343</v>
+        <v>221.99799999999999</v>
       </c>
       <c r="O19">
-        <v>4704</v>
+        <v>270.78500000000003</v>
       </c>
       <c r="P19">
-        <v>1130</v>
+        <v>43.338000000000001</v>
       </c>
       <c r="Q19">
-        <v>56</v>
+        <v>19.170999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1992</v>
+        <v>289.99900000000002</v>
       </c>
       <c r="U19">
-        <v>1666</v>
+        <v>103.276</v>
       </c>
       <c r="V19">
-        <v>45</v>
+        <v>19.876999999999999</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>236</v>
+        <v>-2.8159999999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-196</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="AA19">
-        <v>63</v>
+        <v>14.411</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>88</v>
+        <v>15.249000000000001</v>
       </c>
       <c r="D20">
-        <v>5194</v>
+        <v>352.15100000000001</v>
       </c>
       <c r="E20">
-        <v>1248</v>
+        <v>69.838999999999999</v>
       </c>
       <c r="F20">
-        <v>1013</v>
+        <v>69.936000000000007</v>
       </c>
       <c r="G20">
-        <v>3838</v>
+        <v>217.256</v>
       </c>
       <c r="H20">
-        <v>7022</v>
+        <v>574.44600000000003</v>
       </c>
       <c r="I20">
-        <v>3385</v>
+        <v>184.63800000000001</v>
       </c>
       <c r="J20">
-        <v>1144</v>
+        <v>52.731000000000002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3458</v>
+        <v>194.78100000000001</v>
       </c>
       <c r="O20">
-        <v>4927</v>
+        <v>255.727</v>
       </c>
       <c r="P20">
-        <v>1149</v>
+        <v>53.216999999999999</v>
       </c>
       <c r="Q20">
-        <v>301</v>
+        <v>-37.677999999999997</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2095</v>
+        <v>318.71899999999999</v>
       </c>
       <c r="U20">
-        <v>1967</v>
+        <v>65.597999999999999</v>
       </c>
       <c r="V20">
-        <v>350</v>
+        <v>-26.902000000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>25</v>
+        <v>11.388</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-41</v>
+        <v>4.2809999999999997</v>
       </c>
       <c r="AA20">
-        <v>88</v>
+        <v>15.249000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>93</v>
+        <v>12.106</v>
       </c>
       <c r="D21">
-        <v>5471</v>
+        <v>403.46</v>
       </c>
       <c r="E21">
-        <v>1281</v>
+        <v>43.234999999999999</v>
       </c>
       <c r="F21">
-        <v>1038</v>
+        <v>72.41</v>
       </c>
       <c r="G21">
-        <v>3596</v>
+        <v>243.80099999999999</v>
       </c>
       <c r="H21">
-        <v>7322</v>
+        <v>639.61099999999999</v>
       </c>
       <c r="I21">
-        <v>3492</v>
+        <v>196.191</v>
       </c>
       <c r="J21">
-        <v>1276</v>
+        <v>87.65</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3563</v>
+        <v>209.114</v>
       </c>
       <c r="O21">
-        <v>5113</v>
+        <v>306.37799999999999</v>
       </c>
       <c r="P21">
-        <v>1281</v>
+        <v>88.135999999999996</v>
       </c>
       <c r="Q21">
-        <v>-302</v>
+        <v>55.826000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2209</v>
+        <v>333.233</v>
       </c>
       <c r="U21">
-        <v>1665</v>
+        <v>121.42400000000001</v>
       </c>
       <c r="V21">
-        <v>62</v>
+        <v>51.936999999999998</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>106</v>
+        <v>35.616999999999997</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-422</v>
+        <v>10.409000000000001</v>
       </c>
       <c r="AA21">
-        <v>93</v>
+        <v>12.106</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>13.866</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>426.41199999999998</v>
       </c>
       <c r="E22">
-        <v>1279</v>
+        <v>43.847000000000001</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>80.524000000000001</v>
       </c>
       <c r="G22">
-        <v>3605</v>
+        <v>272.60500000000002</v>
       </c>
       <c r="H22">
-        <v>7339</v>
+        <v>668.03</v>
       </c>
       <c r="I22">
-        <v>3481</v>
+        <v>200.304</v>
       </c>
       <c r="J22">
-        <v>1218</v>
+        <v>92.447999999999993</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3629</v>
+        <v>214.65100000000001</v>
       </c>
       <c r="O22">
-        <v>5015</v>
+        <v>315.98200000000003</v>
       </c>
       <c r="P22">
-        <v>1223</v>
+        <v>93.147000000000006</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>25.934000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>18200</v>
+        <v>1800</v>
       </c>
       <c r="T22">
-        <v>2324</v>
+        <v>352.048</v>
       </c>
       <c r="U22">
-        <v>1760</v>
+        <v>147.358</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>29.135999999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>5.4779999999999998</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>13.866</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-16</v>
+        <v>8.766</v>
       </c>
       <c r="D23">
-        <v>6426</v>
+        <v>458.61799999999999</v>
       </c>
       <c r="E23">
-        <v>2529</v>
+        <v>66.367999999999995</v>
       </c>
       <c r="F23">
-        <v>1115</v>
+        <v>96.945999999999998</v>
       </c>
       <c r="G23">
-        <v>7551</v>
+        <v>281.04399999999998</v>
       </c>
       <c r="H23">
-        <v>18652</v>
+        <v>737.80700000000002</v>
       </c>
       <c r="I23">
-        <v>7670</v>
+        <v>220.571</v>
       </c>
       <c r="J23">
-        <v>4286</v>
+        <v>130.94</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1388</v>
+        <v>-2.2850000000000001</v>
       </c>
       <c r="N23">
-        <v>7871</v>
+        <v>234.77699999999999</v>
       </c>
       <c r="O23">
-        <v>13199</v>
+        <v>373.55799999999999</v>
       </c>
       <c r="P23">
-        <v>4290</v>
+        <v>132.65199999999999</v>
       </c>
       <c r="Q23">
-        <v>1676</v>
+        <v>-28.846</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5453</v>
+        <v>364.24900000000002</v>
       </c>
       <c r="U23">
-        <v>3436</v>
+        <v>118.512</v>
       </c>
       <c r="V23">
-        <v>196</v>
+        <v>9.343</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>2316</v>
+        <v>35.225999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-9</v>
+        <v>-19.367000000000001</v>
       </c>
       <c r="AA23">
-        <v>-16</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>170</v>
+        <v>4.9649999999999999</v>
       </c>
       <c r="D24">
-        <v>10308</v>
+        <v>499.18400000000003</v>
       </c>
       <c r="E24">
-        <v>3488</v>
+        <v>96.852000000000004</v>
       </c>
       <c r="F24">
-        <v>1923</v>
+        <v>98.954999999999998</v>
       </c>
       <c r="G24">
-        <v>7853</v>
+        <v>325.702</v>
       </c>
       <c r="H24">
-        <v>19496</v>
+        <v>801.13599999999997</v>
       </c>
       <c r="I24">
-        <v>7757</v>
+        <v>239.744</v>
       </c>
       <c r="J24">
-        <v>3649</v>
+        <v>164.46199999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>8814</v>
+        <v>256.19099999999997</v>
       </c>
       <c r="O24">
-        <v>13809</v>
+        <v>427.09699999999998</v>
       </c>
       <c r="P24">
-        <v>4494</v>
+        <v>165.49600000000001</v>
       </c>
       <c r="Q24">
-        <v>-726</v>
+        <v>12.923999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5687</v>
+        <v>374.03899999999999</v>
       </c>
       <c r="U24">
-        <v>2710</v>
+        <v>131.43600000000001</v>
       </c>
       <c r="V24">
-        <v>-419</v>
+        <v>5.0990000000000002</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>176</v>
+        <v>34.811999999999998</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-354</v>
+        <v>3.1469999999999998</v>
       </c>
       <c r="AA24">
-        <v>170</v>
+        <v>4.9649999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>147</v>
+        <v>-71.192999999999998</v>
       </c>
       <c r="D25">
-        <v>10248</v>
+        <v>635.87400000000002</v>
       </c>
       <c r="E25">
-        <v>3445</v>
+        <v>86.108000000000004</v>
       </c>
       <c r="F25">
-        <v>1872</v>
+        <v>134.524</v>
       </c>
       <c r="G25">
-        <v>7755</v>
+        <v>374.75599999999997</v>
       </c>
       <c r="H25">
-        <v>19634</v>
+        <v>813.84100000000001</v>
       </c>
       <c r="I25">
-        <v>7605</v>
+        <v>314.62599999999998</v>
       </c>
       <c r="J25">
-        <v>3744</v>
+        <v>168.429</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9023</v>
+        <v>334.255</v>
       </c>
       <c r="O25">
-        <v>13762</v>
+        <v>507.93599999999998</v>
       </c>
       <c r="P25">
-        <v>4589</v>
+        <v>169.46100000000001</v>
       </c>
       <c r="Q25">
-        <v>272</v>
+        <v>69.043999999999997</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5872</v>
+        <v>305.90499999999997</v>
       </c>
       <c r="U25">
-        <v>2982</v>
+        <v>200.48</v>
       </c>
       <c r="V25">
-        <v>482</v>
+        <v>110.113</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>102</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-210</v>
+        <v>-19.126000000000001</v>
       </c>
       <c r="AA25">
-        <v>147</v>
+        <v>-71.192999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>10706</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3210</v>
+        <v>73.135000000000005</v>
       </c>
       <c r="F26">
-        <v>2142</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>8365</v>
+        <v>451.822</v>
       </c>
       <c r="H26">
-        <v>20197</v>
+        <v>894.98</v>
       </c>
       <c r="I26">
-        <v>8306</v>
+        <v>313.75700000000001</v>
       </c>
       <c r="J26">
-        <v>4713</v>
+        <v>174.64599999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>8623</v>
+        <v>387.95100000000002</v>
       </c>
       <c r="O26">
-        <v>14143</v>
+        <v>568.55700000000002</v>
       </c>
       <c r="P26">
-        <v>4717</v>
+        <v>175.61699999999999</v>
       </c>
       <c r="Q26">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>30500</v>
+        <v>2600</v>
       </c>
       <c r="T26">
-        <v>6054</v>
+        <v>326.423</v>
       </c>
       <c r="U26">
-        <v>3930</v>
+        <v>253.37</v>
       </c>
       <c r="V26">
-        <v>1592</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-221</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>139</v>
+        <v>38.210999999999999</v>
       </c>
       <c r="D27">
-        <v>11206</v>
+        <v>652.43499999999995</v>
       </c>
       <c r="E27">
-        <v>3113</v>
+        <v>78.075999999999993</v>
       </c>
       <c r="F27">
-        <v>1884</v>
+        <v>123.91500000000001</v>
       </c>
       <c r="G27">
-        <v>9408</v>
+        <v>481.53399999999999</v>
       </c>
       <c r="H27">
-        <v>21362</v>
+        <v>971.37699999999995</v>
       </c>
       <c r="I27">
-        <v>8565</v>
+        <v>351.80700000000002</v>
       </c>
       <c r="J27">
-        <v>4715</v>
+        <v>200.404</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-560</v>
+        <v>-165.24799999999999</v>
       </c>
       <c r="N27">
-        <v>9202</v>
+        <v>391.38499999999999</v>
       </c>
       <c r="O27">
-        <v>15140</v>
+        <v>601.91300000000001</v>
       </c>
       <c r="P27">
-        <v>4719</v>
+        <v>201.369</v>
       </c>
       <c r="Q27">
-        <v>915</v>
+        <v>40.857999999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6222</v>
+        <v>369.464</v>
       </c>
       <c r="U27">
-        <v>4839</v>
+        <v>311.90499999999997</v>
       </c>
       <c r="V27">
-        <v>1248</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-10</v>
+        <v>22.254999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-239</v>
+        <v>-13.031000000000001</v>
       </c>
       <c r="AA27">
-        <v>139</v>
+        <v>38.210999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>254</v>
+        <v>17.782</v>
       </c>
       <c r="D28">
-        <v>11486</v>
+        <v>714.44500000000005</v>
       </c>
       <c r="E28">
-        <v>3891</v>
+        <v>113.491</v>
       </c>
       <c r="F28">
-        <v>2073</v>
+        <v>139.29900000000001</v>
       </c>
       <c r="G28">
-        <v>9648</v>
+        <v>439.55099999999999</v>
       </c>
       <c r="H28">
-        <v>21840</v>
+        <v>1050.002</v>
       </c>
       <c r="I28">
-        <v>8408</v>
+        <v>407.03699999999998</v>
       </c>
       <c r="J28">
-        <v>4769</v>
+        <v>200.16200000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>8966</v>
+        <v>450.02800000000002</v>
       </c>
       <c r="O28">
-        <v>15312</v>
+        <v>658.96900000000005</v>
       </c>
       <c r="P28">
-        <v>4773</v>
+        <v>201.13399999999999</v>
       </c>
       <c r="Q28">
-        <v>-418</v>
+        <v>-75.462000000000003</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6528</v>
+        <v>391.03300000000002</v>
       </c>
       <c r="U28">
-        <v>4425</v>
+        <v>236.44300000000001</v>
       </c>
       <c r="V28">
-        <v>-306</v>
+        <v>23.893999999999998</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>49</v>
+        <v>-1.5920000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-63</v>
+        <v>-81.524000000000001</v>
       </c>
       <c r="AA28">
-        <v>254</v>
+        <v>17.782</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>205</v>
+        <v>15.936</v>
       </c>
       <c r="D29">
-        <v>11472</v>
+        <v>735.50300000000004</v>
       </c>
       <c r="E29">
-        <v>3938</v>
+        <v>84.813000000000002</v>
       </c>
       <c r="F29">
-        <v>1929</v>
+        <v>144.12</v>
       </c>
       <c r="G29">
-        <v>9660</v>
+        <v>450.452</v>
       </c>
       <c r="H29">
-        <v>22000</v>
+        <v>1086.24</v>
       </c>
       <c r="I29">
-        <v>9137</v>
+        <v>419.34500000000003</v>
       </c>
       <c r="J29">
-        <v>4770</v>
+        <v>201.14</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>9709</v>
+        <v>464.839</v>
       </c>
       <c r="O29">
-        <v>15327</v>
+        <v>677.69100000000003</v>
       </c>
       <c r="P29">
-        <v>4774</v>
+        <v>202.13800000000001</v>
       </c>
       <c r="Q29">
-        <v>-146</v>
+        <v>38.604999999999997</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6673</v>
+        <v>408.54899999999998</v>
       </c>
       <c r="U29">
-        <v>4281</v>
+        <v>275.048</v>
       </c>
       <c r="V29">
-        <v>97</v>
+        <v>104.878</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-42</v>
+        <v>-4.3890000000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-83</v>
+        <v>-28.373000000000001</v>
       </c>
       <c r="AA29">
-        <v>205</v>
+        <v>15.936</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>230</v>
+        <v>1.4730000000000001</v>
       </c>
       <c r="D30">
-        <v>11646</v>
+        <v>614.53</v>
       </c>
       <c r="E30">
-        <v>3395</v>
+        <v>76.302999999999997</v>
       </c>
       <c r="F30">
-        <v>2073</v>
+        <v>118.681</v>
       </c>
       <c r="G30">
-        <v>8703</v>
+        <v>446.339</v>
       </c>
       <c r="H30">
-        <v>21855</v>
+        <v>1121.8240000000001</v>
       </c>
       <c r="I30">
-        <v>9000</v>
+        <v>416.30799999999999</v>
       </c>
       <c r="J30">
-        <v>4749</v>
+        <v>206.40600000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>9332</v>
+        <v>486.8</v>
       </c>
       <c r="O30">
-        <v>14979</v>
+        <v>706.77700000000004</v>
       </c>
       <c r="P30">
-        <v>4771</v>
+        <v>207.37700000000001</v>
       </c>
       <c r="Q30">
-        <v>-198</v>
+        <v>-6.4640000000000004</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>33700</v>
+        <v>3100</v>
       </c>
       <c r="T30">
-        <v>6876</v>
+        <v>415.04700000000003</v>
       </c>
       <c r="U30">
-        <v>4072</v>
+        <v>267.30500000000001</v>
       </c>
       <c r="V30">
-        <v>450</v>
+        <v>37.488</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-79</v>
+        <v>4.4870000000000001</v>
       </c>
       <c r="Y30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-409</v>
+        <v>-26.7</v>
       </c>
       <c r="AA30">
-        <v>230</v>
+        <v>1.4730000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>340</v>
+        <v>25.623000000000001</v>
       </c>
       <c r="D31">
-        <v>12597</v>
+        <v>764.92600000000004</v>
       </c>
       <c r="E31">
-        <v>3635</v>
+        <v>81.468000000000004</v>
       </c>
       <c r="F31">
-        <v>2558</v>
+        <v>155.55199999999999</v>
       </c>
       <c r="G31">
-        <v>10976</v>
+        <v>443.61</v>
       </c>
       <c r="H31">
-        <v>25170</v>
+        <v>1139.2750000000001</v>
       </c>
       <c r="I31">
-        <v>10248</v>
+        <v>463.36099999999999</v>
       </c>
       <c r="J31">
-        <v>5292</v>
+        <v>215.81800000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1491</v>
+        <v>-17.148</v>
       </c>
       <c r="N31">
-        <v>10890</v>
+        <v>466.762</v>
       </c>
       <c r="O31">
-        <v>17582</v>
+        <v>696.04</v>
       </c>
       <c r="P31">
-        <v>5296</v>
+        <v>216.23400000000001</v>
       </c>
       <c r="Q31">
-        <v>1595</v>
+        <v>-4.8040000000000003</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7588</v>
+        <v>443.23500000000001</v>
       </c>
       <c r="U31">
-        <v>5668</v>
+        <v>263.77999999999997</v>
       </c>
       <c r="V31">
-        <v>1846</v>
+        <v>26.716000000000001</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>513</v>
+        <v>5.69</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-320</v>
+        <v>-15.137</v>
       </c>
       <c r="AA31">
-        <v>340</v>
+        <v>25.623000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>300</v>
+        <v>18.202999999999999</v>
       </c>
       <c r="D32">
-        <v>12940</v>
+        <v>807.89599999999996</v>
       </c>
       <c r="E32">
-        <v>4050</v>
+        <v>113.233</v>
       </c>
       <c r="F32">
-        <v>2560</v>
+        <v>157.018</v>
       </c>
       <c r="G32">
-        <v>12377</v>
+        <v>578.84699999999998</v>
       </c>
       <c r="H32">
-        <v>28743</v>
+        <v>1215.0650000000001</v>
       </c>
       <c r="I32">
-        <v>9335</v>
+        <v>512.24300000000005</v>
       </c>
       <c r="J32">
-        <v>6411</v>
+        <v>221.75700000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>9862</v>
+        <v>518.04700000000003</v>
       </c>
       <c r="O32">
-        <v>18035</v>
+        <v>755.29700000000003</v>
       </c>
       <c r="P32">
-        <v>6415</v>
+        <v>222.095</v>
       </c>
       <c r="Q32">
-        <v>2850</v>
+        <v>93.707999999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10708</v>
+        <v>459.76799999999997</v>
       </c>
       <c r="U32">
-        <v>6707</v>
+        <v>357.488</v>
       </c>
       <c r="V32">
-        <v>-526</v>
+        <v>59.96</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>3865</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-334</v>
+        <v>52.540999999999997</v>
       </c>
       <c r="AA32">
-        <v>300</v>
+        <v>18.202999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="D33">
-        <v>15435</v>
+        <v>838.41</v>
       </c>
       <c r="E33">
-        <v>4617</v>
+        <v>150.351</v>
       </c>
       <c r="F33">
-        <v>2809</v>
+        <v>166.49</v>
       </c>
       <c r="G33">
-        <v>13088</v>
+        <v>634.12</v>
       </c>
       <c r="H33">
-        <v>31157</v>
+        <v>1358.0530000000001</v>
       </c>
       <c r="I33">
-        <v>12451</v>
+        <v>580.61099999999999</v>
       </c>
       <c r="J33">
-        <v>6526</v>
+        <v>249.697</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>12741</v>
+        <v>596.76499999999999</v>
       </c>
       <c r="O33">
-        <v>20396</v>
+        <v>880.47900000000004</v>
       </c>
       <c r="P33">
-        <v>6530</v>
+        <v>249.97300000000001</v>
       </c>
       <c r="Q33">
-        <v>-1680</v>
+        <v>-82.203999999999994</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>10761</v>
+        <v>477.57400000000001</v>
       </c>
       <c r="U33">
-        <v>6847</v>
+        <v>275.28399999999999</v>
       </c>
       <c r="V33">
-        <v>548</v>
+        <v>39.838000000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>82</v>
+        <v>24.914000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-462</v>
+        <v>-53.258000000000003</v>
       </c>
       <c r="AA33">
-        <v>19</v>
+        <v>18.248000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>15716</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>5123</v>
+        <v>87.558999999999997</v>
       </c>
       <c r="F34">
-        <v>2704</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>11998</v>
+        <v>666.34299999999996</v>
       </c>
       <c r="H34">
-        <v>30901</v>
+        <v>1451.152</v>
       </c>
       <c r="I34">
-        <v>11548</v>
+        <v>592.60299999999995</v>
       </c>
       <c r="J34">
-        <v>6696</v>
+        <v>264.637</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>11971</v>
+        <v>640.97799999999995</v>
       </c>
       <c r="O34">
-        <v>19878</v>
+        <v>949.88</v>
       </c>
       <c r="P34">
-        <v>6781</v>
+        <v>264.892</v>
       </c>
       <c r="Q34">
-        <v>-1504</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>47300</v>
+        <v>3600</v>
       </c>
       <c r="T34">
-        <v>11023</v>
+        <v>501.27199999999999</v>
       </c>
       <c r="U34">
-        <v>5342</v>
+        <v>370.99900000000002</v>
       </c>
       <c r="V34">
-        <v>-634</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-739</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>522</v>
+        <v>18.457999999999998</v>
       </c>
       <c r="D35">
-        <v>16937</v>
+        <v>912.46799999999996</v>
       </c>
       <c r="E35">
-        <v>5799</v>
+        <v>147.899</v>
       </c>
       <c r="F35">
-        <v>3055</v>
+        <v>173.12799999999999</v>
       </c>
       <c r="G35">
-        <v>13616</v>
+        <v>637.25099999999998</v>
       </c>
       <c r="H35">
-        <v>33569</v>
+        <v>1552.83</v>
       </c>
       <c r="I35">
-        <v>12584</v>
+        <v>566.654</v>
       </c>
       <c r="J35">
-        <v>6787</v>
+        <v>269.71100000000001</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-927</v>
+        <v>-82.572999999999993</v>
       </c>
       <c r="N35">
-        <v>13143</v>
+        <v>681.46299999999997</v>
       </c>
       <c r="O35">
-        <v>21925</v>
+        <v>1003.308</v>
       </c>
       <c r="P35">
-        <v>7615</v>
+        <v>290.31900000000002</v>
       </c>
       <c r="Q35">
-        <v>1001</v>
+        <v>-36.869999999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>11644</v>
+        <v>549.52200000000005</v>
       </c>
       <c r="U35">
-        <v>6345</v>
+        <v>334.62299999999999</v>
       </c>
       <c r="V35">
-        <v>1316</v>
+        <v>23.417999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>58</v>
+        <v>24.712</v>
       </c>
       <c r="Y35">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-197</v>
+        <v>-68.652000000000001</v>
       </c>
       <c r="AA35">
-        <v>522</v>
+        <v>18.457999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>495</v>
+        <v>20.23</v>
       </c>
       <c r="D36">
-        <v>17419</v>
+        <v>935.70699999999999</v>
       </c>
       <c r="E36">
-        <v>5175</v>
+        <v>157.863</v>
       </c>
       <c r="F36">
-        <v>3065</v>
+        <v>180.001</v>
       </c>
       <c r="G36">
-        <v>13596</v>
+        <v>685.76400000000001</v>
       </c>
       <c r="H36">
-        <v>34368</v>
+        <v>1586.2090000000001</v>
       </c>
       <c r="I36">
-        <v>12156</v>
+        <v>576.39200000000005</v>
       </c>
       <c r="J36">
-        <v>6930</v>
+        <v>288.51299999999998</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>12653</v>
+        <v>663.44399999999996</v>
       </c>
       <c r="O36">
-        <v>22098</v>
+        <v>1001.192</v>
       </c>
       <c r="P36">
-        <v>7902</v>
+        <v>288.75599999999997</v>
       </c>
       <c r="Q36">
-        <v>541</v>
+        <v>42.27</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>12270</v>
+        <v>585.01700000000005</v>
       </c>
       <c r="U36">
-        <v>6875</v>
+        <v>382.7</v>
       </c>
       <c r="V36">
-        <v>917</v>
+        <v>38.701000000000001</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>178</v>
+        <v>-6.2450000000000001</v>
       </c>
       <c r="Y36">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-364</v>
+        <v>30.92</v>
       </c>
       <c r="AA36">
-        <v>495</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>95</v>
+        <v>21.268000000000001</v>
       </c>
       <c r="D37">
-        <v>18313</v>
+        <v>991.05899999999997</v>
       </c>
       <c r="E37">
-        <v>5585</v>
+        <v>104.798</v>
       </c>
       <c r="F37">
-        <v>2907</v>
+        <v>187.99700000000001</v>
       </c>
       <c r="G37">
-        <v>13457</v>
+        <v>614.05799999999999</v>
       </c>
       <c r="H37">
-        <v>34252</v>
+        <v>1635.0139999999999</v>
       </c>
       <c r="I37">
-        <v>12676</v>
+        <v>615.40800000000002</v>
       </c>
       <c r="J37">
-        <v>6874</v>
+        <v>276.68700000000001</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>13280</v>
+        <v>707.923</v>
       </c>
       <c r="O37">
-        <v>21816</v>
+        <v>1041.7570000000001</v>
       </c>
       <c r="P37">
-        <v>7829</v>
+        <v>277.33199999999999</v>
       </c>
       <c r="Q37">
-        <v>-664</v>
+        <v>9.4830000000000005</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>12436</v>
+        <v>593.25699999999995</v>
       </c>
       <c r="U37">
-        <v>6215</v>
+        <v>389.13499999999999</v>
       </c>
       <c r="V37">
-        <v>-99</v>
+        <v>114.858</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-108</v>
+        <v>-5.8860000000000001</v>
       </c>
       <c r="Y37">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-266</v>
+        <v>-62.713999999999999</v>
       </c>
       <c r="AA37">
-        <v>95</v>
+        <v>21.268000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>209</v>
+        <v>23.715</v>
       </c>
       <c r="D38">
-        <v>18138</v>
+        <v>1054.74</v>
       </c>
       <c r="E38">
-        <v>6227</v>
+        <v>98.756</v>
       </c>
       <c r="F38">
-        <v>2918</v>
+        <v>189.32499999999999</v>
       </c>
       <c r="G38">
-        <v>20323</v>
+        <v>616.13400000000001</v>
       </c>
       <c r="H38">
-        <v>40994</v>
+        <v>1702.364</v>
       </c>
       <c r="I38">
-        <v>12300</v>
+        <v>602.93299999999999</v>
       </c>
       <c r="J38">
-        <v>13527</v>
+        <v>307.08499999999998</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>12932</v>
+        <v>715.90800000000002</v>
       </c>
       <c r="O38">
-        <v>28302</v>
+        <v>1082.9369999999999</v>
       </c>
       <c r="P38">
-        <v>14520</v>
+        <v>307.73099999999999</v>
       </c>
       <c r="Q38">
-        <v>5903</v>
+        <v>9.77</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>56600</v>
+        <v>3900</v>
       </c>
       <c r="T38">
-        <v>12692</v>
+        <v>619.42700000000002</v>
       </c>
       <c r="U38">
-        <v>12123</v>
+        <v>400.95100000000002</v>
       </c>
       <c r="V38">
-        <v>-651</v>
+        <v>71.218000000000004</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>6704</v>
+        <v>33.963999999999999</v>
       </c>
       <c r="Y38">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>61</v>
+        <v>-47.965000000000003</v>
       </c>
       <c r="AA38">
-        <v>209</v>
+        <v>23.715</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>46</v>
+        <v>24.001999999999999</v>
       </c>
       <c r="D39">
-        <v>24246</v>
+        <v>1029.279</v>
       </c>
       <c r="E39">
-        <v>11283</v>
+        <v>110.12</v>
       </c>
       <c r="F39">
-        <v>3826</v>
+        <v>189.571</v>
       </c>
       <c r="G39">
-        <v>24696</v>
+        <v>571.90200000000004</v>
       </c>
       <c r="H39">
-        <v>66431</v>
+        <v>1730.671</v>
       </c>
       <c r="I39">
-        <v>20798</v>
+        <v>645.44100000000003</v>
       </c>
       <c r="J39">
-        <v>17031</v>
+        <v>232.06399999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1039</v>
+        <v>-97.135999999999996</v>
       </c>
       <c r="N39">
-        <v>21651</v>
+        <v>685.11300000000006</v>
       </c>
       <c r="O39">
-        <v>42739</v>
+        <v>981.13699999999994</v>
       </c>
       <c r="P39">
-        <v>18271</v>
+        <v>232.72399999999999</v>
       </c>
       <c r="Q39">
-        <v>-2674</v>
+        <v>-53.662999999999997</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>23692</v>
+        <v>749.53399999999999</v>
       </c>
       <c r="U39">
-        <v>9308</v>
+        <v>350.07499999999999</v>
       </c>
       <c r="V39">
-        <v>-240</v>
+        <v>-38.5</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>839</v>
+        <v>26.001000000000001</v>
       </c>
       <c r="Y39">
-        <v>913</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-498</v>
+        <v>-29.466000000000001</v>
       </c>
       <c r="AA39">
-        <v>46</v>
+        <v>24.001999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>1206</v>
+        <v>22.773</v>
       </c>
       <c r="D40">
-        <v>25826</v>
+        <v>1054.752</v>
       </c>
       <c r="E40">
-        <v>10322</v>
+        <v>164.42</v>
       </c>
       <c r="F40">
-        <v>5519</v>
+        <v>195.417</v>
       </c>
       <c r="G40">
-        <v>26822</v>
+        <v>545.83699999999999</v>
       </c>
       <c r="H40">
-        <v>68347</v>
+        <v>1733.537</v>
       </c>
       <c r="I40">
-        <v>21160</v>
+        <v>622.98800000000006</v>
       </c>
       <c r="J40">
-        <v>16569</v>
+        <v>252.02799999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>21918</v>
+        <v>636.81899999999996</v>
       </c>
       <c r="O40">
-        <v>43142</v>
+        <v>954.36900000000003</v>
       </c>
       <c r="P40">
-        <v>17847</v>
+        <v>252.79900000000001</v>
       </c>
       <c r="Q40">
-        <v>3498</v>
+        <v>-84.489000000000004</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>25205</v>
+        <v>779.16800000000001</v>
       </c>
       <c r="U40">
-        <v>12798</v>
+        <v>264.72300000000001</v>
       </c>
       <c r="V40">
-        <v>3714</v>
+        <v>-59.756</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-460</v>
+        <v>20.146999999999998</v>
       </c>
       <c r="Y40">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>417</v>
+        <v>15.077</v>
       </c>
       <c r="AA40">
-        <v>1206</v>
+        <v>22.773</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>568</v>
+        <v>22.661999999999999</v>
       </c>
       <c r="D41">
-        <v>27554</v>
+        <v>1082.2260000000001</v>
       </c>
       <c r="E41">
-        <v>11649</v>
+        <v>182.37899999999999</v>
       </c>
       <c r="F41">
-        <v>4622</v>
+        <v>188.94499999999999</v>
       </c>
       <c r="G41">
-        <v>27275</v>
+        <v>675.98800000000006</v>
       </c>
       <c r="H41">
-        <v>68364</v>
+        <v>1795.1769999999999</v>
       </c>
       <c r="I41">
-        <v>20926</v>
+        <v>602.96199999999999</v>
       </c>
       <c r="J41">
-        <v>16600</v>
+        <v>263.51299999999998</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>21795</v>
+        <v>661.09199999999998</v>
       </c>
       <c r="O41">
-        <v>42485</v>
+        <v>991.245</v>
       </c>
       <c r="P41">
-        <v>18063</v>
+        <v>264.17599999999999</v>
       </c>
       <c r="Q41">
-        <v>-611</v>
+        <v>132.066</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>25879</v>
+        <v>803.93200000000002</v>
       </c>
       <c r="U41">
-        <v>12198</v>
+        <v>397.51900000000001</v>
       </c>
       <c r="V41">
-        <v>-952</v>
+        <v>72.563000000000002</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>4</v>
+        <v>9.4480000000000004</v>
       </c>
       <c r="Y41">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>578</v>
+        <v>83.787000000000006</v>
       </c>
       <c r="AA41">
-        <v>568</v>
+        <v>22.661999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>25.399000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1132.7809999999999</v>
+      </c>
+      <c r="E42">
+        <v>130.06299999999999</v>
+      </c>
+      <c r="F42">
+        <v>140.65299999999999</v>
+      </c>
+      <c r="G42">
+        <v>656.82100000000003</v>
+      </c>
+      <c r="H42">
+        <v>1943.8820000000001</v>
+      </c>
+      <c r="I42">
+        <v>645.08500000000004</v>
+      </c>
+      <c r="J42">
+        <v>327.82400000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>765.24599999999998</v>
+      </c>
+      <c r="O42">
+        <v>1146.827</v>
+      </c>
+      <c r="P42">
+        <v>330.64100000000002</v>
+      </c>
+      <c r="Q42">
+        <v>36.5</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4200</v>
+      </c>
+      <c r="T42">
+        <v>797.05499999999995</v>
+      </c>
+      <c r="U42">
+        <v>434.166</v>
+      </c>
+      <c r="V42">
+        <v>194.625</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>16.492999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-114.48099999999999</v>
+      </c>
+      <c r="AA42">
+        <v>25.399000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>23.745000000000001</v>
+      </c>
+      <c r="D43">
+        <v>1182.9100000000001</v>
+      </c>
+      <c r="E43">
+        <v>132.023</v>
+      </c>
+      <c r="F43">
+        <v>204.34299999999999</v>
+      </c>
+      <c r="G43">
+        <v>743.82899999999995</v>
+      </c>
+      <c r="H43">
+        <v>2003.6849999999999</v>
+      </c>
+      <c r="I43">
+        <v>686.55899999999997</v>
+      </c>
+      <c r="J43">
+        <v>302.32600000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-152.577</v>
+      </c>
+      <c r="N43">
+        <v>817.04700000000003</v>
+      </c>
+      <c r="O43">
+        <v>1172.489</v>
+      </c>
+      <c r="P43">
+        <v>305.363</v>
+      </c>
+      <c r="Q43">
+        <v>57.878999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>831.19600000000003</v>
+      </c>
+      <c r="U43">
+        <v>492.04500000000002</v>
+      </c>
+      <c r="V43">
+        <v>93.991</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-24.134</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>4.9039999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>23.745000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>28.373999999999999</v>
+      </c>
+      <c r="D44">
+        <v>1280.9490000000001</v>
+      </c>
+      <c r="E44">
+        <v>152.13499999999999</v>
+      </c>
+      <c r="F44">
+        <v>221.82900000000001</v>
+      </c>
+      <c r="G44">
+        <v>774.53599999999994</v>
+      </c>
+      <c r="H44">
+        <v>2010.444</v>
+      </c>
+      <c r="I44">
+        <v>635.49099999999999</v>
+      </c>
+      <c r="J44">
+        <v>338.28699999999998</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>749.77300000000002</v>
+      </c>
+      <c r="O44">
+        <v>1140.1400000000001</v>
+      </c>
+      <c r="P44">
+        <v>341.459</v>
+      </c>
+      <c r="Q44">
+        <v>-17.594999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>870.30399999999997</v>
+      </c>
+      <c r="U44">
+        <v>474.45</v>
+      </c>
+      <c r="V44">
+        <v>-40.837000000000003</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>32.375</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>12.305</v>
+      </c>
+      <c r="AA44">
+        <v>28.373999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>28.986999999999998</v>
+      </c>
+      <c r="D45">
+        <v>1267.9780000000001</v>
+      </c>
+      <c r="E45">
+        <v>139.46700000000001</v>
+      </c>
+      <c r="F45">
+        <v>214.65799999999999</v>
+      </c>
+      <c r="G45">
+        <v>766.37599999999998</v>
+      </c>
+      <c r="H45">
+        <v>2037.498</v>
+      </c>
+      <c r="I45">
+        <v>672.41300000000001</v>
+      </c>
+      <c r="J45">
+        <v>348.09300000000002</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>730.38</v>
+      </c>
+      <c r="O45">
+        <v>1133.3989999999999</v>
+      </c>
+      <c r="P45">
+        <v>351.29599999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-22.792999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>904.09900000000005</v>
+      </c>
+      <c r="U45">
+        <v>451.65699999999998</v>
+      </c>
+      <c r="V45">
+        <v>36.518999999999998</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-38.229999999999997</v>
+      </c>
+      <c r="AA45">
+        <v>28.986999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>30.111999999999998</v>
+      </c>
+      <c r="D46">
+        <v>1462.539</v>
+      </c>
+      <c r="E46">
+        <v>152.137</v>
+      </c>
+      <c r="F46">
+        <v>228.8</v>
+      </c>
+      <c r="G46">
+        <v>940.01</v>
+      </c>
+      <c r="H46">
+        <v>2190.3359999999998</v>
+      </c>
+      <c r="I46">
+        <v>824.48900000000003</v>
+      </c>
+      <c r="J46">
+        <v>348.34399999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>837.61300000000006</v>
+      </c>
+      <c r="O46">
+        <v>1253.9169999999999</v>
+      </c>
+      <c r="P46">
+        <v>351.57799999999997</v>
+      </c>
+      <c r="Q46">
+        <v>122.041</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5300</v>
+      </c>
+      <c r="T46">
+        <v>936.41899999999998</v>
+      </c>
+      <c r="U46">
+        <v>573.69799999999998</v>
+      </c>
+      <c r="V46">
+        <v>172.023</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-2.0569999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-29.972000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>30.111999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>23.978000000000002</v>
+      </c>
+      <c r="D47">
+        <v>1668.759</v>
+      </c>
+      <c r="E47">
+        <v>278.233</v>
+      </c>
+      <c r="F47">
+        <v>226.083</v>
+      </c>
+      <c r="G47">
+        <v>920.37699999999995</v>
+      </c>
+      <c r="H47">
+        <v>2283.1469999999999</v>
+      </c>
+      <c r="I47">
+        <v>867.11</v>
+      </c>
+      <c r="J47">
+        <v>347.16199999999998</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.79500000000000004</v>
+      </c>
+      <c r="N47">
+        <v>888.322</v>
+      </c>
+      <c r="O47">
+        <v>1304.028</v>
+      </c>
+      <c r="P47">
+        <v>350.39699999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-140.69999999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>979.11900000000003</v>
+      </c>
+      <c r="U47">
+        <v>432.99799999999999</v>
+      </c>
+      <c r="V47">
+        <v>-32.095999999999997</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>12.247</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-105.871</v>
+      </c>
+      <c r="AA47">
+        <v>23.978000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-34.999000000000002</v>
+      </c>
+      <c r="D48">
+        <v>2065.6439999999998</v>
+      </c>
+      <c r="E48">
+        <v>400.19400000000002</v>
+      </c>
+      <c r="F48">
+        <v>175.239</v>
+      </c>
+      <c r="G48">
+        <v>1073.4380000000001</v>
+      </c>
+      <c r="H48">
+        <v>2449.5500000000002</v>
+      </c>
+      <c r="I48">
+        <v>1001.801</v>
+      </c>
+      <c r="J48">
+        <v>405.46199999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1034.2360000000001</v>
+      </c>
+      <c r="O48">
+        <v>1501.5630000000001</v>
+      </c>
+      <c r="P48">
+        <v>408.76400000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-11.103999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>947.98699999999997</v>
+      </c>
+      <c r="U48">
+        <v>421.89400000000001</v>
+      </c>
+      <c r="V48">
+        <v>22.196000000000002</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>56.472999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-47.311</v>
+      </c>
+      <c r="AA48">
+        <v>-34.999000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>3.819</v>
+      </c>
+      <c r="D49">
+        <v>2235.7080000000001</v>
+      </c>
+      <c r="E49">
+        <v>316.12299999999999</v>
+      </c>
+      <c r="F49">
+        <v>198.709</v>
+      </c>
+      <c r="G49">
+        <v>1376.5050000000001</v>
+      </c>
+      <c r="H49">
+        <v>2690.9360000000001</v>
+      </c>
+      <c r="I49">
+        <v>1144.81</v>
+      </c>
+      <c r="J49">
+        <v>391.97300000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1280.114</v>
+      </c>
+      <c r="O49">
+        <v>1733.8720000000001</v>
+      </c>
+      <c r="P49">
+        <v>395.31</v>
+      </c>
+      <c r="Q49">
+        <v>374.72699999999998</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>957.06399999999996</v>
+      </c>
+      <c r="U49">
+        <v>796.62099999999998</v>
+      </c>
+      <c r="V49">
+        <v>317.18200000000002</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-14.529</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>85.233000000000004</v>
+      </c>
+      <c r="AA49">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>242.37899999999999</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1405.825</v>
+      </c>
+      <c r="H50">
+        <v>2773.9050000000002</v>
+      </c>
+      <c r="I50">
+        <v>1034.2270000000001</v>
+      </c>
+      <c r="J50">
+        <v>535.48099999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1229.3130000000001</v>
+      </c>
+      <c r="O50">
+        <v>1820.1379999999999</v>
+      </c>
+      <c r="P50">
+        <v>538.85400000000004</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>6800</v>
+      </c>
+      <c r="T50">
+        <v>953.76700000000005</v>
+      </c>
+      <c r="U50">
+        <v>745.93299999999999</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>23.001999999999999</v>
+      </c>
+      <c r="D51">
+        <v>2426.096</v>
+      </c>
+      <c r="E51">
+        <v>320.37099999999998</v>
+      </c>
+      <c r="F51">
+        <v>271.55</v>
+      </c>
+      <c r="G51">
+        <v>1375.271</v>
+      </c>
+      <c r="H51">
+        <v>2887.1570000000002</v>
+      </c>
+      <c r="I51">
+        <v>1265.5</v>
+      </c>
+      <c r="J51">
+        <v>532.73400000000004</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.77600000000000002</v>
+      </c>
+      <c r="N51">
+        <v>1307.0940000000001</v>
+      </c>
+      <c r="O51">
+        <v>1900.627</v>
+      </c>
+      <c r="P51">
+        <v>536.15300000000002</v>
+      </c>
+      <c r="Q51">
+        <v>-113.161</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>986.53</v>
+      </c>
+      <c r="U51">
+        <v>730.79100000000005</v>
+      </c>
+      <c r="V51">
+        <v>42.993000000000002</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0.123</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-145.62299999999999</v>
+      </c>
+      <c r="AA51">
+        <v>23.001999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>39.484000000000002</v>
+      </c>
+      <c r="D52">
+        <v>2522.989</v>
+      </c>
+      <c r="E52">
+        <v>357.90800000000002</v>
+      </c>
+      <c r="F52">
+        <v>388.70600000000002</v>
+      </c>
+      <c r="G52">
+        <v>1342.36</v>
+      </c>
+      <c r="H52">
+        <v>3045.2350000000001</v>
+      </c>
+      <c r="I52">
+        <v>1295.732</v>
+      </c>
+      <c r="J52">
+        <v>548.47299999999996</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1320.5719999999999</v>
+      </c>
+      <c r="O52">
+        <v>1922.961</v>
+      </c>
+      <c r="P52">
+        <v>551.50199999999995</v>
+      </c>
+      <c r="Q52">
+        <v>-42.079000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1122.2739999999999</v>
+      </c>
+      <c r="U52">
+        <v>688.71199999999999</v>
+      </c>
+      <c r="V52">
+        <v>37.945999999999998</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>39.206000000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-32.996000000000002</v>
+      </c>
+      <c r="AA52">
+        <v>39.484000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>49.372999999999998</v>
+      </c>
+      <c r="D53">
+        <v>2730.8209999999999</v>
+      </c>
+      <c r="E53">
+        <v>355.947</v>
+      </c>
+      <c r="F53">
+        <v>437.20499999999998</v>
+      </c>
+      <c r="G53">
+        <v>1368.4349999999999</v>
+      </c>
+      <c r="H53">
+        <v>3139.0369999999998</v>
+      </c>
+      <c r="I53">
+        <v>1342.0530000000001</v>
+      </c>
+      <c r="J53">
+        <v>517.93100000000004</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1386.972</v>
+      </c>
+      <c r="O53">
+        <v>1953.9459999999999</v>
+      </c>
+      <c r="P53">
+        <v>520.97699999999998</v>
+      </c>
+      <c r="Q53">
+        <v>52.569000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1185.0909999999999</v>
+      </c>
+      <c r="U53">
+        <v>741.28099999999995</v>
+      </c>
+      <c r="V53">
+        <v>130.73099999999999</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-29.532</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-36.363</v>
+      </c>
+      <c r="AA53">
+        <v>49.372999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>53.140999999999998</v>
+      </c>
+      <c r="D54">
+        <v>2863.893</v>
+      </c>
+      <c r="E54">
+        <v>419</v>
+      </c>
+      <c r="F54">
+        <v>451.33800000000002</v>
+      </c>
+      <c r="G54">
+        <v>1800</v>
+      </c>
+      <c r="H54">
+        <v>3529</v>
+      </c>
+      <c r="I54">
+        <v>1488</v>
+      </c>
+      <c r="J54">
+        <v>666</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1559</v>
+      </c>
+      <c r="O54">
+        <v>2286</v>
+      </c>
+      <c r="P54">
+        <v>669</v>
+      </c>
+      <c r="Q54">
+        <v>296.67099999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>8800</v>
+      </c>
+      <c r="T54">
+        <v>1243</v>
+      </c>
+      <c r="U54">
+        <v>974</v>
+      </c>
+      <c r="V54">
+        <v>170.33</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>144.203</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>3.9820000000000002</v>
+      </c>
+      <c r="AA54">
+        <v>53.140999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>33</v>
+      </c>
+      <c r="D55">
+        <v>3357</v>
+      </c>
+      <c r="E55">
+        <v>570.10500000000002</v>
+      </c>
+      <c r="F55">
+        <v>614</v>
+      </c>
+      <c r="G55">
+        <v>2281.8490000000002</v>
+      </c>
+      <c r="H55">
+        <v>4446.4470000000001</v>
+      </c>
+      <c r="I55">
+        <v>1913.0540000000001</v>
+      </c>
+      <c r="J55">
+        <v>810.97</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-519</v>
+      </c>
+      <c r="N55">
+        <v>2021.443</v>
+      </c>
+      <c r="O55">
+        <v>2903.5880000000002</v>
+      </c>
+      <c r="P55">
+        <v>817.08</v>
+      </c>
+      <c r="Q55">
+        <v>233</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1542.8589999999999</v>
+      </c>
+      <c r="U55">
+        <v>1218.0039999999999</v>
+      </c>
+      <c r="V55">
+        <v>252</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>131</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-55</v>
+      </c>
+      <c r="AA55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>3748</v>
+      </c>
+      <c r="E56">
+        <v>610.96900000000005</v>
+      </c>
+      <c r="F56">
+        <v>788</v>
+      </c>
+      <c r="G56">
+        <v>2324.886</v>
+      </c>
+      <c r="H56">
+        <v>4682.567</v>
+      </c>
+      <c r="I56">
+        <v>2064.4580000000001</v>
+      </c>
+      <c r="J56">
+        <v>884.89</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2117.7069999999999</v>
+      </c>
+      <c r="O56">
+        <v>3076.9450000000002</v>
+      </c>
+      <c r="P56">
+        <v>891.02499999999998</v>
+      </c>
+      <c r="Q56">
         <v>-12</v>
       </c>
-      <c r="D42">
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1605.6220000000001</v>
+      </c>
+      <c r="U56">
+        <v>1199.7840000000001</v>
+      </c>
+      <c r="V56">
+        <v>160</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>68</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-199</v>
+      </c>
+      <c r="AA56">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>82</v>
+      </c>
+      <c r="D57">
+        <v>4165</v>
+      </c>
+      <c r="E57">
+        <v>685.18799999999999</v>
+      </c>
+      <c r="F57">
+        <v>775</v>
+      </c>
+      <c r="G57">
+        <v>2767.7109999999998</v>
+      </c>
+      <c r="H57">
+        <v>5446.3450000000003</v>
+      </c>
+      <c r="I57">
+        <v>2515.578</v>
+      </c>
+      <c r="J57">
+        <v>950.97</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2634.2930000000001</v>
+      </c>
+      <c r="O57">
+        <v>3664.7950000000001</v>
+      </c>
+      <c r="P57">
+        <v>956.101</v>
+      </c>
+      <c r="Q57">
+        <v>324</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1781.55</v>
+      </c>
+      <c r="U57">
+        <v>1523.596</v>
+      </c>
+      <c r="V57">
+        <v>441</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>74</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-164</v>
+      </c>
+      <c r="AA57">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>107</v>
+      </c>
+      <c r="D58">
+        <v>4419</v>
+      </c>
+      <c r="E58">
+        <v>890</v>
+      </c>
+      <c r="F58">
+        <v>834</v>
+      </c>
+      <c r="G58">
+        <v>2951</v>
+      </c>
+      <c r="H58">
+        <v>5824</v>
+      </c>
+      <c r="I58">
+        <v>2727</v>
+      </c>
+      <c r="J58">
+        <v>874</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2900</v>
+      </c>
+      <c r="O58">
+        <v>3933</v>
+      </c>
+      <c r="P58">
+        <v>879</v>
+      </c>
+      <c r="Q58">
+        <v>27</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>13400</v>
+      </c>
+      <c r="T58">
+        <v>1891</v>
+      </c>
+      <c r="U58">
+        <v>1610</v>
+      </c>
+      <c r="V58">
+        <v>370</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-75</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-191</v>
+      </c>
+      <c r="AA58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>63</v>
+      </c>
+      <c r="D59">
+        <v>4770</v>
+      </c>
+      <c r="E59">
+        <v>1245</v>
+      </c>
+      <c r="F59">
+        <v>909</v>
+      </c>
+      <c r="G59">
+        <v>3590</v>
+      </c>
+      <c r="H59">
+        <v>6696</v>
+      </c>
+      <c r="I59">
+        <v>3221</v>
+      </c>
+      <c r="J59">
+        <v>1125</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-253</v>
+      </c>
+      <c r="N59">
+        <v>3343</v>
+      </c>
+      <c r="O59">
+        <v>4704</v>
+      </c>
+      <c r="P59">
+        <v>1130</v>
+      </c>
+      <c r="Q59">
+        <v>56</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1992</v>
+      </c>
+      <c r="U59">
+        <v>1666</v>
+      </c>
+      <c r="V59">
+        <v>45</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>236</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-196</v>
+      </c>
+      <c r="AA59">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>88</v>
+      </c>
+      <c r="D60">
+        <v>5194</v>
+      </c>
+      <c r="E60">
+        <v>1248</v>
+      </c>
+      <c r="F60">
+        <v>1013</v>
+      </c>
+      <c r="G60">
+        <v>3838</v>
+      </c>
+      <c r="H60">
+        <v>7022</v>
+      </c>
+      <c r="I60">
+        <v>3385</v>
+      </c>
+      <c r="J60">
+        <v>1144</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3458</v>
+      </c>
+      <c r="O60">
+        <v>4927</v>
+      </c>
+      <c r="P60">
+        <v>1149</v>
+      </c>
+      <c r="Q60">
+        <v>301</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2095</v>
+      </c>
+      <c r="U60">
+        <v>1967</v>
+      </c>
+      <c r="V60">
+        <v>350</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>25</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-41</v>
+      </c>
+      <c r="AA60">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>93</v>
+      </c>
+      <c r="D61">
+        <v>5471</v>
+      </c>
+      <c r="E61">
+        <v>1281</v>
+      </c>
+      <c r="F61">
+        <v>1038</v>
+      </c>
+      <c r="G61">
+        <v>3596</v>
+      </c>
+      <c r="H61">
+        <v>7322</v>
+      </c>
+      <c r="I61">
+        <v>3492</v>
+      </c>
+      <c r="J61">
+        <v>1276</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3563</v>
+      </c>
+      <c r="O61">
+        <v>5113</v>
+      </c>
+      <c r="P61">
+        <v>1281</v>
+      </c>
+      <c r="Q61">
+        <v>-302</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2209</v>
+      </c>
+      <c r="U61">
+        <v>1665</v>
+      </c>
+      <c r="V61">
+        <v>62</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>106</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-422</v>
+      </c>
+      <c r="AA61">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1279</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>3605</v>
+      </c>
+      <c r="H62">
+        <v>7339</v>
+      </c>
+      <c r="I62">
+        <v>3481</v>
+      </c>
+      <c r="J62">
+        <v>1218</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3629</v>
+      </c>
+      <c r="O62">
+        <v>5015</v>
+      </c>
+      <c r="P62">
+        <v>1223</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>18200</v>
+      </c>
+      <c r="T62">
+        <v>2324</v>
+      </c>
+      <c r="U62">
+        <v>1760</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-16</v>
+      </c>
+      <c r="D63">
+        <v>6426</v>
+      </c>
+      <c r="E63">
+        <v>2529</v>
+      </c>
+      <c r="F63">
+        <v>1115</v>
+      </c>
+      <c r="G63">
+        <v>7551</v>
+      </c>
+      <c r="H63">
+        <v>18652</v>
+      </c>
+      <c r="I63">
+        <v>7670</v>
+      </c>
+      <c r="J63">
+        <v>4286</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1388</v>
+      </c>
+      <c r="N63">
+        <v>7871</v>
+      </c>
+      <c r="O63">
+        <v>13199</v>
+      </c>
+      <c r="P63">
+        <v>4290</v>
+      </c>
+      <c r="Q63">
+        <v>1676</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5453</v>
+      </c>
+      <c r="U63">
+        <v>3436</v>
+      </c>
+      <c r="V63">
+        <v>196</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>2316</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-9</v>
+      </c>
+      <c r="AA63">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>170</v>
+      </c>
+      <c r="D64">
+        <v>10308</v>
+      </c>
+      <c r="E64">
+        <v>3488</v>
+      </c>
+      <c r="F64">
+        <v>1923</v>
+      </c>
+      <c r="G64">
+        <v>7853</v>
+      </c>
+      <c r="H64">
+        <v>19496</v>
+      </c>
+      <c r="I64">
+        <v>7757</v>
+      </c>
+      <c r="J64">
+        <v>3649</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>8814</v>
+      </c>
+      <c r="O64">
+        <v>13809</v>
+      </c>
+      <c r="P64">
+        <v>4494</v>
+      </c>
+      <c r="Q64">
+        <v>-726</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5687</v>
+      </c>
+      <c r="U64">
+        <v>2710</v>
+      </c>
+      <c r="V64">
+        <v>-419</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>176</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-354</v>
+      </c>
+      <c r="AA64">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>147</v>
+      </c>
+      <c r="D65">
+        <v>10248</v>
+      </c>
+      <c r="E65">
+        <v>3445</v>
+      </c>
+      <c r="F65">
+        <v>1872</v>
+      </c>
+      <c r="G65">
+        <v>7755</v>
+      </c>
+      <c r="H65">
+        <v>19634</v>
+      </c>
+      <c r="I65">
+        <v>7605</v>
+      </c>
+      <c r="J65">
+        <v>3744</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>9023</v>
+      </c>
+      <c r="O65">
+        <v>13762</v>
+      </c>
+      <c r="P65">
+        <v>4589</v>
+      </c>
+      <c r="Q65">
+        <v>272</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5872</v>
+      </c>
+      <c r="U65">
+        <v>2982</v>
+      </c>
+      <c r="V65">
+        <v>482</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>102</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-210</v>
+      </c>
+      <c r="AA65">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>261</v>
+      </c>
+      <c r="D66">
+        <v>10706</v>
+      </c>
+      <c r="E66">
+        <v>3210</v>
+      </c>
+      <c r="F66">
+        <v>2142</v>
+      </c>
+      <c r="G66">
+        <v>8365</v>
+      </c>
+      <c r="H66">
+        <v>20197</v>
+      </c>
+      <c r="I66">
+        <v>8306</v>
+      </c>
+      <c r="J66">
+        <v>4713</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>8623</v>
+      </c>
+      <c r="O66">
+        <v>14143</v>
+      </c>
+      <c r="P66">
+        <v>4717</v>
+      </c>
+      <c r="Q66">
+        <v>948</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>30500</v>
+      </c>
+      <c r="T66">
+        <v>6054</v>
+      </c>
+      <c r="U66">
+        <v>3930</v>
+      </c>
+      <c r="V66">
+        <v>1592</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>123</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-221</v>
+      </c>
+      <c r="AA66">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>139</v>
+      </c>
+      <c r="D67">
+        <v>11206</v>
+      </c>
+      <c r="E67">
+        <v>3113</v>
+      </c>
+      <c r="F67">
+        <v>1884</v>
+      </c>
+      <c r="G67">
+        <v>9408</v>
+      </c>
+      <c r="H67">
+        <v>21362</v>
+      </c>
+      <c r="I67">
+        <v>8565</v>
+      </c>
+      <c r="J67">
+        <v>4715</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-560</v>
+      </c>
+      <c r="N67">
+        <v>9202</v>
+      </c>
+      <c r="O67">
+        <v>15140</v>
+      </c>
+      <c r="P67">
+        <v>4719</v>
+      </c>
+      <c r="Q67">
+        <v>915</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6222</v>
+      </c>
+      <c r="U67">
+        <v>4839</v>
+      </c>
+      <c r="V67">
+        <v>1248</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-10</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-239</v>
+      </c>
+      <c r="AA67">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>254</v>
+      </c>
+      <c r="D68">
+        <v>11486</v>
+      </c>
+      <c r="E68">
+        <v>3891</v>
+      </c>
+      <c r="F68">
+        <v>2073</v>
+      </c>
+      <c r="G68">
+        <v>9648</v>
+      </c>
+      <c r="H68">
+        <v>21840</v>
+      </c>
+      <c r="I68">
+        <v>8408</v>
+      </c>
+      <c r="J68">
+        <v>4769</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>8966</v>
+      </c>
+      <c r="O68">
+        <v>15312</v>
+      </c>
+      <c r="P68">
+        <v>4773</v>
+      </c>
+      <c r="Q68">
+        <v>-418</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6528</v>
+      </c>
+      <c r="U68">
+        <v>4425</v>
+      </c>
+      <c r="V68">
+        <v>-306</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>49</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-63</v>
+      </c>
+      <c r="AA68">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>205</v>
+      </c>
+      <c r="D69">
+        <v>11472</v>
+      </c>
+      <c r="E69">
+        <v>3938</v>
+      </c>
+      <c r="F69">
+        <v>1929</v>
+      </c>
+      <c r="G69">
+        <v>9660</v>
+      </c>
+      <c r="H69">
+        <v>22000</v>
+      </c>
+      <c r="I69">
+        <v>9137</v>
+      </c>
+      <c r="J69">
+        <v>4770</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>9709</v>
+      </c>
+      <c r="O69">
+        <v>15327</v>
+      </c>
+      <c r="P69">
+        <v>4774</v>
+      </c>
+      <c r="Q69">
+        <v>-146</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6673</v>
+      </c>
+      <c r="U69">
+        <v>4281</v>
+      </c>
+      <c r="V69">
+        <v>97</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-42</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-83</v>
+      </c>
+      <c r="AA69">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>230</v>
+      </c>
+      <c r="D70">
+        <v>11646</v>
+      </c>
+      <c r="E70">
+        <v>3395</v>
+      </c>
+      <c r="F70">
+        <v>2073</v>
+      </c>
+      <c r="G70">
+        <v>8703</v>
+      </c>
+      <c r="H70">
+        <v>21855</v>
+      </c>
+      <c r="I70">
+        <v>9000</v>
+      </c>
+      <c r="J70">
+        <v>4749</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>9332</v>
+      </c>
+      <c r="O70">
+        <v>14979</v>
+      </c>
+      <c r="P70">
+        <v>4771</v>
+      </c>
+      <c r="Q70">
+        <v>-198</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>33700</v>
+      </c>
+      <c r="T70">
+        <v>6876</v>
+      </c>
+      <c r="U70">
+        <v>4072</v>
+      </c>
+      <c r="V70">
+        <v>450</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-79</v>
+      </c>
+      <c r="Y70">
+        <v>18</v>
+      </c>
+      <c r="Z70">
+        <v>-409</v>
+      </c>
+      <c r="AA70">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>340</v>
+      </c>
+      <c r="D71">
+        <v>12597</v>
+      </c>
+      <c r="E71">
+        <v>3635</v>
+      </c>
+      <c r="F71">
+        <v>2558</v>
+      </c>
+      <c r="G71">
+        <v>10976</v>
+      </c>
+      <c r="H71">
+        <v>25170</v>
+      </c>
+      <c r="I71">
+        <v>10248</v>
+      </c>
+      <c r="J71">
+        <v>5292</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-1491</v>
+      </c>
+      <c r="N71">
+        <v>10890</v>
+      </c>
+      <c r="O71">
+        <v>17582</v>
+      </c>
+      <c r="P71">
+        <v>5296</v>
+      </c>
+      <c r="Q71">
+        <v>1595</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7588</v>
+      </c>
+      <c r="U71">
+        <v>5668</v>
+      </c>
+      <c r="V71">
+        <v>1846</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>513</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-320</v>
+      </c>
+      <c r="AA71">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>300</v>
+      </c>
+      <c r="D72">
+        <v>12940</v>
+      </c>
+      <c r="E72">
+        <v>4050</v>
+      </c>
+      <c r="F72">
+        <v>2560</v>
+      </c>
+      <c r="G72">
+        <v>12377</v>
+      </c>
+      <c r="H72">
+        <v>28743</v>
+      </c>
+      <c r="I72">
+        <v>9335</v>
+      </c>
+      <c r="J72">
+        <v>6411</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>9862</v>
+      </c>
+      <c r="O72">
+        <v>18035</v>
+      </c>
+      <c r="P72">
+        <v>6415</v>
+      </c>
+      <c r="Q72">
+        <v>2850</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>10708</v>
+      </c>
+      <c r="U72">
+        <v>6707</v>
+      </c>
+      <c r="V72">
+        <v>-526</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>3865</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-334</v>
+      </c>
+      <c r="AA72">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>15435</v>
+      </c>
+      <c r="E73">
+        <v>4617</v>
+      </c>
+      <c r="F73">
+        <v>2809</v>
+      </c>
+      <c r="G73">
+        <v>13088</v>
+      </c>
+      <c r="H73">
+        <v>31157</v>
+      </c>
+      <c r="I73">
+        <v>12451</v>
+      </c>
+      <c r="J73">
+        <v>6526</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>12741</v>
+      </c>
+      <c r="O73">
+        <v>20396</v>
+      </c>
+      <c r="P73">
+        <v>6530</v>
+      </c>
+      <c r="Q73">
+        <v>-1680</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>10761</v>
+      </c>
+      <c r="U73">
+        <v>6847</v>
+      </c>
+      <c r="V73">
+        <v>548</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>82</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-462</v>
+      </c>
+      <c r="AA73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>241</v>
+      </c>
+      <c r="D74">
+        <v>15716</v>
+      </c>
+      <c r="E74">
+        <v>5123</v>
+      </c>
+      <c r="F74">
+        <v>2704</v>
+      </c>
+      <c r="G74">
+        <v>11998</v>
+      </c>
+      <c r="H74">
+        <v>30901</v>
+      </c>
+      <c r="I74">
+        <v>11548</v>
+      </c>
+      <c r="J74">
+        <v>6696</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>11971</v>
+      </c>
+      <c r="O74">
+        <v>19878</v>
+      </c>
+      <c r="P74">
+        <v>6781</v>
+      </c>
+      <c r="Q74">
+        <v>-1504</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>47300</v>
+      </c>
+      <c r="T74">
+        <v>11023</v>
+      </c>
+      <c r="U74">
+        <v>5342</v>
+      </c>
+      <c r="V74">
+        <v>-634</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>152</v>
+      </c>
+      <c r="Y74">
+        <v>47</v>
+      </c>
+      <c r="Z74">
+        <v>-739</v>
+      </c>
+      <c r="AA74">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>522</v>
+      </c>
+      <c r="D75">
+        <v>16937</v>
+      </c>
+      <c r="E75">
+        <v>5799</v>
+      </c>
+      <c r="F75">
+        <v>3055</v>
+      </c>
+      <c r="G75">
+        <v>13616</v>
+      </c>
+      <c r="H75">
+        <v>33569</v>
+      </c>
+      <c r="I75">
+        <v>12584</v>
+      </c>
+      <c r="J75">
+        <v>6787</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-927</v>
+      </c>
+      <c r="N75">
+        <v>13143</v>
+      </c>
+      <c r="O75">
+        <v>21925</v>
+      </c>
+      <c r="P75">
+        <v>7615</v>
+      </c>
+      <c r="Q75">
+        <v>1001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>11644</v>
+      </c>
+      <c r="U75">
+        <v>6345</v>
+      </c>
+      <c r="V75">
+        <v>1316</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>58</v>
+      </c>
+      <c r="Y75">
+        <v>632</v>
+      </c>
+      <c r="Z75">
+        <v>-197</v>
+      </c>
+      <c r="AA75">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>495</v>
+      </c>
+      <c r="D76">
+        <v>17419</v>
+      </c>
+      <c r="E76">
+        <v>5175</v>
+      </c>
+      <c r="F76">
+        <v>3065</v>
+      </c>
+      <c r="G76">
+        <v>13596</v>
+      </c>
+      <c r="H76">
+        <v>34368</v>
+      </c>
+      <c r="I76">
+        <v>12156</v>
+      </c>
+      <c r="J76">
+        <v>6930</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>12653</v>
+      </c>
+      <c r="O76">
+        <v>22098</v>
+      </c>
+      <c r="P76">
+        <v>7902</v>
+      </c>
+      <c r="Q76">
+        <v>541</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>12270</v>
+      </c>
+      <c r="U76">
+        <v>6875</v>
+      </c>
+      <c r="V76">
+        <v>917</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>178</v>
+      </c>
+      <c r="Y76">
+        <v>728</v>
+      </c>
+      <c r="Z76">
+        <v>-364</v>
+      </c>
+      <c r="AA76">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>95</v>
+      </c>
+      <c r="D77">
+        <v>18313</v>
+      </c>
+      <c r="E77">
+        <v>5585</v>
+      </c>
+      <c r="F77">
+        <v>2907</v>
+      </c>
+      <c r="G77">
+        <v>13457</v>
+      </c>
+      <c r="H77">
+        <v>34252</v>
+      </c>
+      <c r="I77">
+        <v>12676</v>
+      </c>
+      <c r="J77">
+        <v>6874</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>13280</v>
+      </c>
+      <c r="O77">
+        <v>21816</v>
+      </c>
+      <c r="P77">
+        <v>7829</v>
+      </c>
+      <c r="Q77">
+        <v>-664</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>12436</v>
+      </c>
+      <c r="U77">
+        <v>6215</v>
+      </c>
+      <c r="V77">
+        <v>-99</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-108</v>
+      </c>
+      <c r="Y77">
+        <v>732</v>
+      </c>
+      <c r="Z77">
+        <v>-266</v>
+      </c>
+      <c r="AA77">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>209</v>
+      </c>
+      <c r="D78">
+        <v>18138</v>
+      </c>
+      <c r="E78">
+        <v>6227</v>
+      </c>
+      <c r="F78">
+        <v>2918</v>
+      </c>
+      <c r="G78">
+        <v>20323</v>
+      </c>
+      <c r="H78">
+        <v>40994</v>
+      </c>
+      <c r="I78">
+        <v>12300</v>
+      </c>
+      <c r="J78">
+        <v>13527</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>12932</v>
+      </c>
+      <c r="O78">
+        <v>28302</v>
+      </c>
+      <c r="P78">
+        <v>14520</v>
+      </c>
+      <c r="Q78">
+        <v>5903</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>56600</v>
+      </c>
+      <c r="T78">
+        <v>12692</v>
+      </c>
+      <c r="U78">
+        <v>12123</v>
+      </c>
+      <c r="V78">
+        <v>-651</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>6704</v>
+      </c>
+      <c r="Y78">
+        <v>744</v>
+      </c>
+      <c r="Z78">
+        <v>61</v>
+      </c>
+      <c r="AA78">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>46</v>
+      </c>
+      <c r="D79">
+        <v>24246</v>
+      </c>
+      <c r="E79">
+        <v>11283</v>
+      </c>
+      <c r="F79">
+        <v>3826</v>
+      </c>
+      <c r="G79">
+        <v>24696</v>
+      </c>
+      <c r="H79">
+        <v>66431</v>
+      </c>
+      <c r="I79">
+        <v>20798</v>
+      </c>
+      <c r="J79">
+        <v>17031</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1039</v>
+      </c>
+      <c r="N79">
+        <v>21651</v>
+      </c>
+      <c r="O79">
+        <v>42739</v>
+      </c>
+      <c r="P79">
+        <v>18271</v>
+      </c>
+      <c r="Q79">
+        <v>-2674</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>23692</v>
+      </c>
+      <c r="U79">
+        <v>9308</v>
+      </c>
+      <c r="V79">
+        <v>-240</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>839</v>
+      </c>
+      <c r="Y79">
+        <v>913</v>
+      </c>
+      <c r="Z79">
+        <v>-498</v>
+      </c>
+      <c r="AA79">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>1206</v>
+      </c>
+      <c r="D80">
+        <v>25826</v>
+      </c>
+      <c r="E80">
+        <v>10322</v>
+      </c>
+      <c r="F80">
+        <v>5519</v>
+      </c>
+      <c r="G80">
+        <v>26822</v>
+      </c>
+      <c r="H80">
+        <v>68347</v>
+      </c>
+      <c r="I80">
+        <v>21160</v>
+      </c>
+      <c r="J80">
+        <v>16569</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>21918</v>
+      </c>
+      <c r="O80">
+        <v>43142</v>
+      </c>
+      <c r="P80">
+        <v>17847</v>
+      </c>
+      <c r="Q80">
+        <v>3498</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>25205</v>
+      </c>
+      <c r="U80">
+        <v>12798</v>
+      </c>
+      <c r="V80">
+        <v>3714</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-460</v>
+      </c>
+      <c r="Y80">
+        <v>968</v>
+      </c>
+      <c r="Z80">
+        <v>417</v>
+      </c>
+      <c r="AA80">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>568</v>
+      </c>
+      <c r="D81">
+        <v>27554</v>
+      </c>
+      <c r="E81">
+        <v>11649</v>
+      </c>
+      <c r="F81">
+        <v>4622</v>
+      </c>
+      <c r="G81">
+        <v>27275</v>
+      </c>
+      <c r="H81">
+        <v>68364</v>
+      </c>
+      <c r="I81">
+        <v>20926</v>
+      </c>
+      <c r="J81">
+        <v>16600</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>21795</v>
+      </c>
+      <c r="O81">
+        <v>42485</v>
+      </c>
+      <c r="P81">
+        <v>18063</v>
+      </c>
+      <c r="Q81">
+        <v>-611</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>25879</v>
+      </c>
+      <c r="U81">
+        <v>12198</v>
+      </c>
+      <c r="V81">
+        <v>-952</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>4</v>
+      </c>
+      <c r="Y81">
+        <v>1176</v>
+      </c>
+      <c r="Z81">
+        <v>578</v>
+      </c>
+      <c r="AA81">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>-12</v>
+      </c>
+      <c r="D82">
         <v>26550</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>9673</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>3945</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>23393</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>68719</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>20761</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>16529</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>21585</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>42757</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>18317</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-1387</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>71300</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>25962</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>10800</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>2981</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-123</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1487</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-2978</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>-12</v>
       </c>
     </row>
